--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772671D-0DB0-4A71-8F00-701A3AFC658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975DA1D-508F-4BE4-BE3C-2B2332719356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>object value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>fnl4461_n13380_uncorr_10.ttp</t>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,23 +406,29 @@
     <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>-30998100</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>339.06799999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -426,7 +436,7 @@
         <v>-46900400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -434,37 +444,37 @@
         <v>-61860400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975DA1D-508F-4BE4-BE3C-2B2332719356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4027211-0ADE-4B0E-83C3-A1F930749E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,6 +435,9 @@
       <c r="B3" s="1">
         <v>-46900400</v>
       </c>
+      <c r="C3">
+        <v>323.57600000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4027211-0ADE-4B0E-83C3-A1F930749E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3082D36-56DD-4932-95D4-1A7F0F3A1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -446,40 +446,85 @@
       <c r="B4" s="1">
         <v>-61860400</v>
       </c>
+      <c r="C4">
+        <v>323.51100000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="1">
+        <v>-78801900</v>
+      </c>
+      <c r="C5">
+        <v>323.49700000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="1">
+        <v>-97033000</v>
+      </c>
+      <c r="C6">
+        <v>323.92399999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="1">
+        <v>-115746000</v>
+      </c>
+      <c r="C7">
+        <v>324.27600000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="1">
+        <v>-133932000</v>
+      </c>
+      <c r="C8">
+        <v>323.70499999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="1">
+        <v>-152773000</v>
+      </c>
+      <c r="C9">
+        <v>323.66300000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="1">
+        <v>-169912000</v>
+      </c>
+      <c r="C10">
+        <v>324.46100000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-167464000</v>
+      </c>
+      <c r="C11">
+        <v>323.39</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3082D36-56DD-4932-95D4-1A7F0F3A1C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47CC73D-AA47-400C-86D3-0F6AC500B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47CC73D-AA47-400C-86D3-0F6AC500B231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD943E2F-132E-4410-AF0C-E8186610DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>-30998100</v>
+        <v>426160</v>
       </c>
       <c r="C2">
-        <v>339.06799999999998</v>
+        <v>319.41500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>-46900400</v>
+        <v>-372343</v>
       </c>
       <c r="C3">
-        <v>323.57600000000002</v>
+        <v>320.904</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>-61860400</v>
+        <v>-280550</v>
       </c>
       <c r="C4">
-        <v>323.51100000000002</v>
+        <v>320.23200000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD943E2F-132E-4410-AF0C-E8186610DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F0FB2-6376-449C-8EE1-E8AAF5EA7C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>object value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,136 +402,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>426160</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>319.41500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>715622</v>
+      </c>
+      <c r="E3">
+        <v>326.87200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>-372343</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>320.904</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>-280550</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>320.23200000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>-78801900</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>323.49700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>-97033000</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>323.92399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>-115746000</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>324.27600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>-133932000</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>323.70499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>-152773000</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>323.66300000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>-169912000</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>324.46100000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>-167464000</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>323.39</v>
       </c>
     </row>

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F0FB2-6376-449C-8EE1-E8AAF5EA7C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F2468-4464-4769-9593-8174D42CCF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>426160</v>
+        <v>-426160</v>
       </c>
       <c r="C3">
         <v>319.41500000000002</v>
@@ -466,6 +466,12 @@
       </c>
       <c r="C4">
         <v>320.904</v>
+      </c>
+      <c r="D4">
+        <v>987477</v>
+      </c>
+      <c r="E4">
+        <v>337.84899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F2468-4464-4769-9593-8174D42CCF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E317A018-73BF-453F-B192-F7552C434B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>object value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>RLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a280_n279_bounded-strongly-corr_01.ttp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object value(m=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,28 +426,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -439,8 +467,20 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -457,7 +497,7 @@
         <v>326.87200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -474,7 +514,7 @@
         <v>337.84899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -485,7 +525,7 @@
         <v>320.23200000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -496,7 +536,7 @@
         <v>323.49700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -507,7 +547,7 @@
         <v>323.92399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -518,7 +558,7 @@
         <v>324.27600000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -529,7 +569,7 @@
         <v>323.70499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -540,7 +580,7 @@
         <v>323.66300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -551,7 +591,7 @@
         <v>324.46100000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -560,6 +600,29 @@
       </c>
       <c r="C12">
         <v>323.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11138.7</v>
+      </c>
+      <c r="D13">
+        <v>14824.7</v>
+      </c>
+      <c r="F13">
+        <v>15830.2</v>
+      </c>
+      <c r="G13">
+        <v>16131.3</v>
+      </c>
+      <c r="H13">
+        <v>16147.6</v>
+      </c>
+      <c r="I13">
+        <v>16118.9</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E317A018-73BF-453F-B192-F7552C434B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CD06AA-C8E3-4C00-AA8B-AEDA633B7CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,6 +496,12 @@
       <c r="E3">
         <v>326.87200000000001</v>
       </c>
+      <c r="F3">
+        <v>715581</v>
+      </c>
+      <c r="G3">
+        <v>715611</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
